--- a/files/AI_Computing_Intern_Companies.xlsx
+++ b/files/AI_Computing_Intern_Companies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simkuangoh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simkuangoh/Documents/GitHub/DSAIE.github.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DBBDB78-ECE8-1C44-96F8-7CD06583E7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AC2E8A-05A2-C148-88B7-AEC12BB67891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{AE694133-4A5B-D44D-9A6B-337C4824D7AA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="448">
   <si>
     <t>J&amp;T Express (Malaysia) Sdn Bhd</t>
   </si>
@@ -1591,19 +1591,275 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>Xiamen Xiangyou Trading Co., Ltd.</t>
+  </si>
+  <si>
+    <t>Floor 2, Xiangyu Building, No. 22 Xiangxing 4th Road, Huli District, Xiamen, Fujian Province</t>
+  </si>
+  <si>
+    <t>东莞市智品模具有限公司</t>
+  </si>
+  <si>
+    <t>广东省东莞市清溪镇大利兴业路5号102室</t>
+  </si>
+  <si>
+    <t>Shandong Control IoT Technology Co., Ltd.</t>
+  </si>
+  <si>
+    <t>Room 1903, Building 2, Jinan Fortune Times Plaza</t>
+  </si>
+  <si>
+    <t>Shandong Palm Control IoT Technology Co., Ltd.</t>
+  </si>
+  <si>
+    <t>Room 1903, Building 2, Times Plaza, Jinan Finance, Shandong</t>
+  </si>
+  <si>
+    <t>厦门火炬集团有限公司</t>
+  </si>
+  <si>
+    <t>No. 56-58, Huoju Plaza, Huoju Road, Huli District, Xiamen, Fujian Province, China</t>
+  </si>
+  <si>
+    <t>杭州爱健科技有限公司</t>
+  </si>
+  <si>
+    <t>浙江省杭州市西湖区钱塘 ONE 9 号楼</t>
+  </si>
+  <si>
+    <t>Fujian Keda Logistics Co., LTD</t>
+  </si>
+  <si>
+    <t>Building B, Hongan Market, Houlong Town, Quangang District, Quanzhou City, Fujian Province</t>
+  </si>
+  <si>
+    <t>厦门达宸信教育科技公司</t>
+  </si>
+  <si>
+    <t>厦门思明区厦门市软件园望海路45号楼601单元</t>
+  </si>
+  <si>
+    <t>Hebei Shangsu Tong Legal Consulting Service Co., Ltd.</t>
+  </si>
+  <si>
+    <t>China, Hebei province, Baoding</t>
+  </si>
+  <si>
+    <t>寻百品牌策划有限公司</t>
+  </si>
+  <si>
+    <t>Room 2505, Dihao Building, Xiamen, Fujian Province, China</t>
+  </si>
+  <si>
+    <t>Hengtong Information Technology Co., Ltd</t>
+  </si>
+  <si>
+    <t>Room 609, Building 3, No. 189 Dunhe Road, Haizhu District, Guangzhou, China</t>
+  </si>
+  <si>
+    <t>Fujian Start Group Co., Ltd.</t>
+  </si>
+  <si>
+    <t>16th Floor, Building 1, No. 8 Zhihui Road, Wenwusha Town, Changle District, Fuzhou, Fujian, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chengdu Boyi Technology Co., Ltd.    </t>
+  </si>
+  <si>
+    <t>No. 27, East Street, Pitong Town, Pidu District, Chengdu City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>中免（深圳）供应链科技有限公司</t>
+  </si>
+  <si>
+    <t>中国深圳前海贸易中心一期A座16楼</t>
+  </si>
+  <si>
+    <t>Zhejiang Development Information Security Evaluation Co., Ltd.</t>
+  </si>
+  <si>
+    <t>No. 33, Huancheng West Road, Xihu District, Hangzhou, Zhejiang Province</t>
+  </si>
+  <si>
+    <t>承德建龙特殊钢有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国河北省承德市兴隆县平安堡镇 </t>
+  </si>
+  <si>
+    <t>上海临港新片区数字基建投资发展有限公司</t>
+  </si>
+  <si>
+    <t>上海市浦东新区水芸路418号14楼</t>
+  </si>
+  <si>
+    <t>Shanghai Qijing Technology Co., Ltd.</t>
+  </si>
+  <si>
+    <t>Room 1803, South Tower, 283 Huaihai Zhong Road, Huangpu, Shanghai, China.</t>
+  </si>
+  <si>
+    <t>Infineon Technologies</t>
+  </si>
+  <si>
+    <t>Infineon Technologies, Taman Perindustrian Batu Berendam, 75350 Batu Berendam, Malacca, Malaysia</t>
+  </si>
+  <si>
+    <t>Gamer2Gamer Sdn. Bhd.</t>
+  </si>
+  <si>
+    <t>B Level 17-03, Vertical Corporate Tower, 8, Jalan Kerinchi, Bangsar South, 59200 Kuala Lumpur, Federal Territory of Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Altera Semiconductor Technology (M) Sdn. Bhd.</t>
+  </si>
+  <si>
+    <t>Plot 6 Bayan Lepas Technoplex Medan Bayan Lepas, Bayan Lepas, Pulau Pinang, 11900</t>
+  </si>
+  <si>
+    <t>Lazada Malaysia</t>
+  </si>
+  <si>
+    <t>Unit G-1, UOA Corporate Avenue 10, The Vertical, Bangsar South City, 8, Jalan Kerinchi, Bangsar South, 59200 Kuala Lumpur, Federal Territory of Kuala Lumpur, Malaysia</t>
+  </si>
+  <si>
+    <t>Infinergy Systems Sdn. Bhd.</t>
+  </si>
+  <si>
+    <t>Wisma SP Setia, C1-0301, Jalan Indah 15, Taman Bukit Indah, 81200 Johor Bahru</t>
+  </si>
+  <si>
+    <t>HIJAUTECH Sdn Bhd</t>
+  </si>
+  <si>
+    <t>No. 43A-1, Masreca19, Persiaran Rimba Permai, Cyberjaya, Malaysia</t>
+  </si>
+  <si>
+    <t>Barracuda Labs Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Centre of Unmanned Technologies (CUTE)
+Lab Block E2, Level 1, Kuliyyah of Engineering
+IIUM, Gombak 53100, Kuala Lumpur,</t>
+  </si>
+  <si>
+    <t>ChatsHero</t>
+  </si>
+  <si>
+    <t>No.43, Tingkat, 2, Jln Tiara 2C, Bandar Baru Klang, 41150 Klang, Selangor</t>
+  </si>
+  <si>
+    <t>CTRL CV SDN. BHD.</t>
+  </si>
+  <si>
+    <t>40, Jalan SS 1/36, Kampung Tunku, 46100 Petaling Jaya, Selangor</t>
+  </si>
+  <si>
+    <t>ECART SERVICES MALAYSIA SDN. BHD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Orpheus Capital Sdn Bhd</t>
+  </si>
+  <si>
+    <t>C-4 Taman Tunku, Off, Jln Langgak Tunku, Bukit Tunku, 50480 Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Plus IntraLink Sdn Bhd</t>
+  </si>
+  <si>
+    <t>2/F Lot 3471 Block 3, Jalan Piasau Utara 1, Piasau Utara Commercial Centre, P.O. Box 813, 98000 Miri, Sarawak, Malaysia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CompAsia Sdn. Bhd.</t>
+  </si>
+  <si>
+    <t>Unit 1.01, Level 1, Wisma Academy, No.4A, Jalan 19/1, Seksyen 19, 46300 Petaling Jaya, Selangor, Malaysia.</t>
+  </si>
+  <si>
+    <t>ViTrox Technologies Sdn. Bhd.</t>
+  </si>
+  <si>
+    <t>746, Persiaran Cassia Selatan 3, Taman Perindustrian Batu Kawan, 14110 Bandar Cassia, Pulau Pinang, Malaysia</t>
+  </si>
+  <si>
+    <t>Tapway Sdn. Bhd.</t>
+  </si>
+  <si>
+    <t>C-3-1, Commercial Centre, Pacific Place, Block C, Jalan PJU 1a/4, Ara Damansara, 47301 Petaling Jaya, Selangor</t>
+  </si>
+  <si>
+    <t>Hijautech Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Hijau Tech Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Infineon Technologies (Melaka)</t>
+  </si>
+  <si>
+    <t>Free Trade Zone, Batu Berendam, 75350 Melaka.</t>
+  </si>
+  <si>
+    <t>VAT Manufacturing (M) Sdn Bhd</t>
+  </si>
+  <si>
+    <t>720, Persiaran Cassia Selatan 1, Kawasan Perindustrian Batu Kawan, 14100 Batu Kawan, Penang</t>
+  </si>
+  <si>
+    <t>Infinity Data Tech Sdn Bhd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B02-A-10-1, Menara 3, KL Eco City, 3 Jalan Bangsar, 59200 Kuala Lumpur. </t>
+  </si>
+  <si>
+    <t>HelloWorld Robotics</t>
+  </si>
+  <si>
+    <t>B10 LEVEL 4, Medan Connaught, MEDAN CONNAUGHT, Jln 3/144a, CHERAS, 56000 Kuala Lumpur, Federal Territory of Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Xinno Communication Technology</t>
+  </si>
+  <si>
+    <t>Building 11, No. 58 Wenxiang East Road, Songjiang District, Shanghai</t>
+  </si>
+  <si>
+    <t>MAXCOM MM SDN BHD</t>
+  </si>
+  <si>
+    <t>41-1, Jalan Damai Raya 1, Damai Niaga, Kuala Lumpur 56000 Malaysia</t>
+  </si>
+  <si>
+    <t>AppPay Sdn. Bhd.</t>
+  </si>
+  <si>
+    <t>Unit 1353, 13th Floor, Tower 4 PFCC, Jalan Puteri 1/2, Bandar Puteri, 47170 Puchong, Selangor</t>
+  </si>
+  <si>
+    <t>INVENTECH SOLUTION</t>
+  </si>
+  <si>
+    <t>43, Jalan Puteri 5/10, Bandar Puteri, 47100 Puchong, Selangor</t>
+  </si>
+  <si>
+    <t>Dataverse Sdn Bhd - Mampu AI</t>
+  </si>
+  <si>
+    <t>D-61, 2, Jalan Zuhal U5/178, Seksyen U5, 40150 Shah Alam, Selangor.</t>
+  </si>
+  <si>
+    <t>Welleast Group</t>
+  </si>
+  <si>
+    <t>29/F, Lixin Plaza, Hubin North Road, Siming District, Xiamen, Fujian Province,China</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1833,6 +2089,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1880,130 +2148,134 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2339,414 +2611,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632D8FF3-037D-134F-B50B-9E8831792A07}">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="140.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="52.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="140.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="37" t="s">
         <v>89</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2754,7 +3026,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="37" t="s">
         <v>81</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2762,23 +3034,23 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="37" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="38" t="s">
         <v>95</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2789,12 +3061,12 @@
       <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2802,18 +3074,18 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="38" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2826,23 +3098,23 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="38" t="s">
         <v>109</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2850,15 +3122,15 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="38" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="38" t="s">
         <v>113</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2866,39 +3138,39 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="20" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2906,7 +3178,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="20" t="s">
         <v>123</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -2914,31 +3186,31 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="39" t="s">
+      <c r="A72" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="38" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="20" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="38" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2946,15 +3218,15 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="18" t="s">
         <v>133</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2962,26 +3234,26 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="23" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="24" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="39" t="s">
+      <c r="A80" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="38" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2994,26 +3266,26 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="38" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="20" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3090,10 +3362,10 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="17" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3146,10 +3418,10 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B101" s="24" t="s">
+      <c r="B101" s="23" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3162,7 +3434,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="22" t="s">
         <v>182</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -3194,7 +3466,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="27" t="s">
         <v>190</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -3250,18 +3522,18 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="28" t="s">
+      <c r="A114" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B114" s="28" t="s">
+      <c r="B114" s="27" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="39" t="s">
+      <c r="A115" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="B115" s="39" t="s">
+      <c r="B115" s="38" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3274,7 +3546,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="29" t="s">
+      <c r="A117" s="28" t="s">
         <v>210</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -3290,10 +3562,10 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="26" t="s">
+      <c r="A119" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B119" s="26" t="s">
+      <c r="B119" s="25" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3330,18 +3602,18 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="39" t="s">
+      <c r="A124" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="B124" s="39" t="s">
+      <c r="B124" s="38" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="39" t="s">
+      <c r="A125" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="B125" s="39" t="s">
+      <c r="B125" s="38" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3354,10 +3626,10 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="20" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3378,23 +3650,23 @@
       </c>
     </row>
     <row r="130" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="29" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B131" s="21" t="s">
+      <c r="B131" s="20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="21" t="s">
+      <c r="A132" s="20" t="s">
         <v>237</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -3402,10 +3674,10 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="28" t="s">
+      <c r="A133" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="B133" s="28" t="s">
+      <c r="B133" s="27" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3426,459 +3698,851 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="21" t="s">
+      <c r="A136" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="B136" s="20" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="23" t="s">
+      <c r="A137" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="B137" s="22" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="25" t="s">
+      <c r="A138" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="B138" s="25" t="s">
+      <c r="B138" s="24" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="25" t="s">
+      <c r="A139" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="B139" s="25" t="s">
+      <c r="B139" s="24" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="31" t="s">
+      <c r="A141" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="B141" s="31" t="s">
+      <c r="B141" s="30" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="21" t="s">
+      <c r="A149" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="B149" s="21" t="s">
+      <c r="B149" s="20" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="10" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="10" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="11" t="s">
+      <c r="A157" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="10" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="11" t="s">
+      <c r="A160" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="10" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="32" t="s">
+      <c r="A161" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="B161" s="32" t="s">
+      <c r="B161" s="31" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="11" t="s">
+      <c r="A162" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="33" t="s">
+      <c r="A163" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="B163" s="40" t="s">
+      <c r="B163" s="39" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="34" t="s">
+      <c r="A165" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="10" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="11" t="s">
+      <c r="A166" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="10" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="33" t="s">
+      <c r="A168" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="B168" s="33" t="s">
+      <c r="B168" s="32" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="10" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="11" t="s">
+      <c r="A170" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="11" t="s">
+      <c r="A171" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="10" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="11" t="s">
+      <c r="A172" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="11" t="s">
+      <c r="A173" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="10" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A174" s="35" t="s">
+      <c r="A174" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="B174" s="36" t="s">
+      <c r="B174" s="35" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="11" t="s">
+      <c r="A175" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="10" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="11" t="s">
+      <c r="A176" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="10" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="11" t="s">
+      <c r="A177" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="11" t="s">
+      <c r="A178" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="11" t="s">
+      <c r="A179" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="10" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="33" t="s">
+      <c r="A180" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="B180" s="33" t="s">
+      <c r="B180" s="32" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="33" t="s">
+      <c r="A181" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="B181" s="33" t="s">
+      <c r="B181" s="32" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="37" t="s">
+      <c r="A182" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="B182" s="37" t="s">
+      <c r="B182" s="36" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="11" t="s">
+      <c r="A183" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="10" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="33" t="s">
+      <c r="A184" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="B184" s="33" t="s">
+      <c r="B184" s="32" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="11" t="s">
+      <c r="A185" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="10" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="11" t="s">
+      <c r="A186" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="10" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="33" t="s">
+      <c r="A187" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="B187" s="33" t="s">
+      <c r="B187" s="32" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="11" t="s">
+      <c r="A188" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="11" t="s">
+      <c r="A189" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="B189" s="10" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="33" t="s">
+      <c r="A190" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="B190" s="33" t="s">
+      <c r="B190" s="32" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="17" x14ac:dyDescent="0.25">
-      <c r="A191" s="34" t="s">
+      <c r="A191" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="B191" s="34" t="s">
+      <c r="B191" s="33" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="11" t="s">
+      <c r="A192" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B192" s="10" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="B193" s="40" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="B194" s="40" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="B195" s="40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="B196" s="40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="B197" s="41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="B198" s="40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="B199" s="40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="B200" s="42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="B201" s="40" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="B202" s="40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="B203" s="40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="B204" s="40" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="B205" s="40" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="B206" s="40" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="B207" s="40" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="B208" s="40" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="B209" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="B210" s="40" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="B211" s="40" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="B212" s="40" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="B213" s="40" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="B214" s="40" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="B215" s="40" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="B216" s="40" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="B217" s="40" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="B218" s="40" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="B219" s="40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="B220" s="40" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="B221" s="40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="B222" s="40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="B223" s="40" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="B224" s="40" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="B225" s="40" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="B226" s="40" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="B227" s="40" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="B228" s="40" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="B229" s="40" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="B230" s="43" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="B231" s="40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="B232" s="40" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="B233" s="40" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="B234" s="40" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="B235" s="40" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="B236" s="40" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="B237" s="40" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="B238" s="40" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="B239" s="40" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="43" t="s">
+        <v>444</v>
+      </c>
+      <c r="B240" s="43" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="B241" s="44" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
